--- a/cta策略/result/螺纹/BBI_1d/wfo_组合绩效.xlsx
+++ b/cta策略/result/螺纹/BBI_1d/wfo_组合绩效.xlsx
@@ -423,16 +423,16 @@
         <v>6</v>
       </c>
       <c r="C2">
-        <v>0.06390489086934892</v>
+        <v>0.07479161051852534</v>
       </c>
       <c r="D2">
-        <v>0.1203739536647674</v>
+        <v>0.1492340181490742</v>
       </c>
       <c r="E2">
-        <v>0.1877459312618287</v>
+        <v>0.1629615307693077</v>
       </c>
       <c r="F2">
-        <v>0.4375</v>
+        <v>0.6470588235294118</v>
       </c>
     </row>
   </sheetData>
